--- a/stat_desc.xlsx
+++ b/stat_desc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouriagan\Documents\delinq_neo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E228FD-1224-4B7A-A638-6D89905BFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A1B2B9-50F8-4230-B21C-97770275AF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{20C5840C-8A22-4E89-891F-DA920B1C32BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Variable</t>
   </si>
@@ -174,15 +174,6 @@
   </si>
   <si>
     <t>Psychopathie</t>
-  </si>
-  <si>
-    <t>Problèmes</t>
-  </si>
-  <si>
-    <t>Faits de délinquance</t>
-  </si>
-  <si>
-    <t>Faits de victimisation</t>
   </si>
   <si>
     <t>Norme m</t>
@@ -541,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D4CAB3-F725-492C-90FE-3FB5D2D2713E}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,16 +571,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -618,7 +609,7 @@
         <v>0.19</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -647,7 +638,7 @@
         <v>-0.17</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,7 +667,7 @@
         <v>0.22</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -705,7 +696,7 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -734,7 +725,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -763,7 +754,7 @@
         <v>0.19</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,7 +783,7 @@
         <v>0.21</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,7 +812,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,7 +841,7 @@
         <v>0.06</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,7 +870,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,7 +928,7 @@
         <v>-0.3</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,7 +957,7 @@
         <v>0.76</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -995,7 +986,7 @@
         <v>0.22</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1024,7 +1015,7 @@
         <v>-0.43</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1053,7 +1044,7 @@
         <v>0.13</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1082,7 +1073,7 @@
         <v>-0.17</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1111,7 +1102,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1140,7 +1131,7 @@
         <v>-0.47</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1169,7 +1160,7 @@
         <v>-0.47</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,7 +1189,7 @@
         <v>-0.62</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1227,7 +1218,7 @@
         <v>-0.4</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1256,7 +1247,7 @@
         <v>-0.21</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1285,7 +1276,7 @@
         <v>-0.26</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,7 +1305,7 @@
         <v>-0.06</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1343,7 +1334,7 @@
         <v>-0.32</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1372,7 +1363,7 @@
         <v>-0.39</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1401,7 +1392,7 @@
         <v>-0.33</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1430,7 +1421,7 @@
         <v>-0.72</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,7 +1450,7 @@
         <v>-0.45</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1488,7 +1479,7 @@
         <v>-0.45</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1517,7 +1508,7 @@
         <v>-0.91</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1546,7 +1537,7 @@
         <v>-0.21</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1575,7 +1566,7 @@
         <v>-0.5</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,7 +1595,7 @@
         <v>-0.52</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1633,7 +1624,7 @@
         <v>0.94</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1662,7 +1653,7 @@
         <v>-0.82</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1691,7 +1682,7 @@
         <v>0.74</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1720,7 +1711,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1749,58 +1740,7 @@
         <v>0.46</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>5.4</v>
-      </c>
-      <c r="C42">
-        <v>3.15</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43">
-        <v>2.41</v>
-      </c>
-      <c r="C43">
-        <v>6.82</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>0.84</v>
-      </c>
-      <c r="C44">
-        <v>1.53</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
